--- a/data_sys.xlsx
+++ b/data_sys.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crinamalanciuc/Desktop/ENVR 401/shiny_dashboard_app/final_dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crinamalanciuc/Desktop/ENVR 401/shiny_dashboard_app/final_dashboard/Diagram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A763FACB-EF1B-C94C-8F05-27E0CB45F173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA26572-F9B8-2A40-A423-C92D5A38CF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16500" xr2:uid="{CAD6C5D5-F399-7543-A5E4-14A94DE37046}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16500" activeTab="1" xr2:uid="{CAD6C5D5-F399-7543-A5E4-14A94DE37046}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -654,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA437D4-6606-F444-9094-26EE62B98C89}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6726C1-3E2C-F74A-A34C-1B05CFAB43BF}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="117" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1372,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3"/>
     </row>
